--- a/doc/ue_ds_spectator.xlsx
+++ b/doc/ue_ds_spectator.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC76C6E1-8DDE-4CFE-8922-C86138E54E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>观看者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* AGameModeBase::Login(UPlayer* NewPlayer, ENetRole InRemoteRole, const FString&amp; Portal, const FString&amp; Options, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; ErrorMessage)</t>
+  </si>
+  <si>
+    <t>APlayerController* const NewPlayerController = SpawnPlayerController(InRemoteRole, Options);</t>
+  </si>
+  <si>
+    <t>if (NewPlayerController == nullptr)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// Handle spawn failure.</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogGameMode, Log, TEXT("Login: Couldn't spawn player controller of class %s"), PlayerControllerClass ? *PlayerControllerClass-&gt;GetName() : TEXT("NULL"));</t>
+  </si>
+  <si>
+    <t>ErrorMessage = FString::Printf(TEXT("Failed to spawn player controller"));</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>创建PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorMessage = InitNewPlayer(NewPlayerController, UniqueId, Options, Portal);</t>
+  </si>
+  <si>
+    <t>根据命令行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Set up spectating</t>
+  </si>
+  <si>
+    <t>bool bSpectator = FCString::Stricmp(*UGameplayStatics::ParseOption(Options, TEXT("SpectatorOnly")), TEXT("1")) == 0;</t>
+  </si>
+  <si>
+    <t>if (bSpectator || MustSpectate(NewPlayerController))</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;StartSpectatingOnly();</t>
+  </si>
+  <si>
+    <t>如果传递的参数，或者自己判断后发现是观察者，则设置对应的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Options.Contains(FString(TEXT("SpectatorOnly=1"))) &amp;&amp; ReplaySpectatorPlayerControllerClass != nullptr)</t>
+  </si>
+  <si>
+    <t>return SpawnPlayerController(InRemoteRole, FVector::ZeroVector, FRotator::ZeroRotator);</t>
+  </si>
+  <si>
+    <t>如果有设置观察者，则创建观察者对应的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerController::StartSpectatingOnly()</t>
+  </si>
+  <si>
+    <t>ChangeState(NAME_Spectating);</t>
+  </si>
+  <si>
+    <t>PlayerState-&gt;SetIsSpectator(true);</t>
+  </si>
+  <si>
+    <t>PlayerState-&gt;SetIsOnlyASpectator(true);</t>
+  </si>
+  <si>
+    <t>bPlayerIsWaiting = false; // Can't spawn, we are only allowed to be a spectator.</t>
+  </si>
+  <si>
+    <t>设置playerstate为观察者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该信息存在与PlayerState上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Whether this player is currently a spectator */</t>
+  </si>
+  <si>
+    <t>UE_DEPRECATED(4.25, "This member will be made private. Use IsSpectator or SetIsSpectator instead.")</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Replicated, BlueprintReadOnly, Category=PlayerState)</t>
+  </si>
+  <si>
+    <t>uint8 bIsSpectator:1;</t>
+  </si>
+  <si>
+    <t>/** Whether this player can only ever be a spectator */</t>
+  </si>
+  <si>
+    <t>UE_DEPRECATED(4.25, "This member will be made private. Use IsOnlyASpectator or SetIsOnlyASpectator instead.")</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Replicated)</t>
+  </si>
+  <si>
+    <t>uint8 bOnlySpectator:1;</t>
+  </si>
+  <si>
+    <t>创建PlayerControoler时，根据命令行判断是否为观察者，设置对应的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return SpawnReplayPlayerController(InRemoteRole, FVector::ZeroVector, FRotator::ZeroRotator);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！观察这可以设置不同的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！在切换状态的时候就创建了对应的PAWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！所以后面不需要创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +179,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -69,8 +229,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -350,23 +513,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F46" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
